--- a/.Courant/Manuel de tests.xlsx
+++ b/.Courant/Manuel de tests.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\.Courant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damien.mayor/Documents/GitHub/TPI/.Courant/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70055DC5-9B6F-D348-AAF9-1123172076C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26460" yWindow="90" windowWidth="23340" windowHeight="20715" activeTab="2"/>
+    <workbookView xWindow="31180" yWindow="500" windowWidth="23340" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stratégie de test" sheetId="4" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Type de test</t>
   </si>
@@ -139,12 +140,24 @@
   </si>
   <si>
     <t>Coller print screens ici</t>
+  </si>
+  <si>
+    <t>Tracert pour mappage/compréhension du résea</t>
+  </si>
+  <si>
+    <t>Pings pour les connexions réseau</t>
+  </si>
+  <si>
+    <t>VPN site à site: déconnexion</t>
+  </si>
+  <si>
+    <t>Client to site: connect check ip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,40 +676,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="15"/>
+    <col min="7" max="7" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
@@ -725,7 +759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="10" x14ac:dyDescent="0.15">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -735,7 +769,7 @@
       <c r="E2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="10" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -745,7 +779,7 @@
       <c r="E3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -756,7 +790,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -767,7 +801,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -778,7 +812,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -789,7 +823,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -800,7 +834,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -811,7 +845,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -822,7 +856,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -833,7 +867,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -844,7 +878,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -855,7 +889,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -866,7 +900,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -877,7 +911,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="11" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -888,7 +922,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" ht="9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="11" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -899,7 +933,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" ht="9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="11" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -910,7 +944,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="11" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -921,7 +955,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="11" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -932,7 +966,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="11" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -943,7 +977,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="11" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -954,7 +988,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" ht="9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="11" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -965,7 +999,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" ht="9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="11" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -982,7 +1016,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Paramètres!$C$2:$C$4</xm:f>
           </x14:formula1>
@@ -995,16 +1029,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1015,33 +1049,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" ht="14" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="12" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="12" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1065,17 +1099,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="11" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="11" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="11" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
@@ -1107,32 +1141,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="12" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="12" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="12" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="12" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="12" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1144,20 +1178,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1168,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
